--- a/RegXp/RegXp.xlsx
+++ b/RegXp/RegXp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jejyjose1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ABDBD9-929B-4268-B356-7D792DA17BB6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25965" windowHeight="8760"/>
+    <workbookView xWindow="32070" yWindow="3105" windowWidth="21600" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Improvements Capital Project (&gt;$300k)</t>
   </si>
@@ -283,12 +284,27 @@
   </si>
   <si>
     <t>Mandatory start "New or Imp"</t>
+  </si>
+  <si>
+    <t>[\x{0800}-\x{FFFF}]</t>
+  </si>
+  <si>
+    <t>unicode characters from 0800 to FFFF</t>
+  </si>
+  <si>
+    <t>.*(Chipseal){1}</t>
+  </si>
+  <si>
+    <t>Renewal - Chipseal</t>
+  </si>
+  <si>
+    <t>End with Chipseal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,11 +644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,9 +716,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://regex101.com/r/cO8lqs/1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://regex101.com/r/cO8lqs/1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
